--- a/Study Materials/ParticipantData/User9.xlsx
+++ b/Study Materials/ParticipantData/User9.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="6620" windowWidth="21600" windowHeight="14320" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="1360" yWindow="-80" windowWidth="21600" windowHeight="14320" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="raw" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Sauvik</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4:30PM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>General Questions:</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -200,10 +208,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1:30PM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>I had just woken up from a nap and was on facebook</t>
   </si>
   <si>
@@ -255,10 +259,6 @@
   </si>
   <si>
     <t>Note-taker:</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rebecca</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -877,64 +877,64 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="S1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="T1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -948,22 +948,22 @@
         <v>39417.03261574074</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O2" s="1">
         <v>39417.032627314817</v>
@@ -972,13 +972,13 @@
         <v>39417.085648148146</v>
       </c>
       <c r="Q2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="R2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="S2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T2" s="1">
         <v>39416.824282407404</v>
@@ -995,7 +995,7 @@
         <v>39417.208333333336</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O3" s="1">
         <v>39417.085729166669</v>
@@ -1004,10 +1004,10 @@
         <v>39417.085729166669</v>
       </c>
       <c r="Q3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="T3" s="1">
         <v>39417.208333333336</v>
@@ -1024,22 +1024,22 @@
         <v>39417.835300925923</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O4" s="1">
         <v>39417.835300925923</v>
@@ -1048,13 +1048,13 @@
         <v>39422.278171296297</v>
       </c>
       <c r="Q4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="R4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="S4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="T4" s="1">
         <v>39417.626967592594</v>
@@ -1071,22 +1071,22 @@
         <v>39420.16337962963</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O5" s="1">
         <v>39420.163391203707</v>
@@ -1095,13 +1095,13 @@
         <v>39422.279224537036</v>
       </c>
       <c r="Q5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="R5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="S5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T5" s="1">
         <v>39419.955046296294</v>
@@ -1118,7 +1118,7 @@
         <v>39420.208333333336</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O6" s="1">
         <v>39422.279270833336</v>
@@ -1127,10 +1127,10 @@
         <v>39422.279270833336</v>
       </c>
       <c r="Q6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="T6" s="1">
         <v>39420.208333333336</v>
@@ -1147,22 +1147,22 @@
         <v>39420.208333333336</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O7" s="1">
         <v>39422.279606481483</v>
@@ -1171,19 +1171,20 @@
         <v>39422.280439814815</v>
       </c>
       <c r="Q7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="R7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="S7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T7" s="1">
         <v>39420.208333333336</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -1225,34 +1226,34 @@
     </row>
     <row r="2" spans="1:10" ht="14" thickBot="1">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="65">
@@ -1263,28 +1264,28 @@
         <v>39417.03261574074</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="117">
@@ -1295,28 +1296,28 @@
         <v>39417.835300925923</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>36</v>
-      </c>
       <c r="I4" s="11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="182">
@@ -1327,28 +1328,28 @@
         <v>39420.16337962963</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="I5" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="104">
@@ -1359,31 +1360,32 @@
         <v>39420.208333333336</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D6" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>56</v>
-      </c>
       <c r="J6" s="12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="70" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -1400,7 +1402,7 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1418,7 +1420,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B1">
         <v>9</v>
@@ -1426,18 +1428,18 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1453,7 +1455,7 @@
         <v>72</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1488,13 +1490,13 @@
     </row>
     <row r="15" spans="1:13" s="18" customFormat="1" ht="117">
       <c r="A15" s="17" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B15" s="17" t="s">
         <v>78</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>79</v>
@@ -1529,22 +1531,22 @@
     </row>
     <row r="16" spans="1:13" s="18" customFormat="1">
       <c r="A16" s="19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C16" s="19">
         <v>44</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G16" s="20"/>
       <c r="H16" s="20"/>
@@ -1556,22 +1558,22 @@
     </row>
     <row r="17" spans="1:13" s="18" customFormat="1">
       <c r="A17" s="19" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C17" s="19">
         <v>59</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
@@ -1583,22 +1585,22 @@
     </row>
     <row r="18" spans="1:13" s="18" customFormat="1">
       <c r="A18" s="19" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C18" s="19">
         <v>79</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G18" s="20"/>
       <c r="H18" s="20"/>
@@ -1610,22 +1612,22 @@
     </row>
     <row r="19" spans="1:13" s="18" customFormat="1">
       <c r="A19" s="19" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C19" s="19">
         <v>101</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G19" s="20"/>
       <c r="H19" s="20"/>
@@ -1658,53 +1660,54 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="22" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="52">
       <c r="A24" s="17" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="39">
       <c r="A25" s="17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="26">
       <c r="A26" s="17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="26">
       <c r="A27" s="17" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="26">
       <c r="A28" s="17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="26">
       <c r="A29" s="17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="52">
       <c r="A30" s="17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
